--- a/myData/RAN 7-28-18 BETA GAL RAN11, RAN12, RAN13.xlsx
+++ b/myData/RAN 7-28-18 BETA GAL RAN11, RAN12, RAN13.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TimeCourseAndBetaGalAssays2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1cc2362bc617e12/Documents/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D91C979-ACCC-40F0-9896-6A20A152A5E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22992" windowHeight="13860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -372,9 +371,6 @@
     <t>RAN</t>
   </si>
   <si>
-    <t>2018-07-24</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -388,12 +384,15 @@
   </si>
   <si>
     <t>CRD38</t>
+  </si>
+  <si>
+    <t>2018-07-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,16 +921,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="A63" sqref="A63:I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -970,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
@@ -1283,7 +1282,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
@@ -1300,7 +1299,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -1317,7 +1316,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>8.5640000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -1361,7 +1360,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
@@ -1378,7 +1377,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -1395,7 +1394,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -1439,7 +1438,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
@@ -1456,7 +1455,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -1473,7 +1472,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>6.6790000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
@@ -1517,7 +1516,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
@@ -1534,7 +1533,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
@@ -1551,7 +1550,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>5.452</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
@@ -1595,7 +1594,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
@@ -1612,7 +1611,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
@@ -1629,7 +1628,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>42</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>6.4589999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
@@ -1673,7 +1672,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
@@ -1690,7 +1689,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
@@ -1707,7 +1706,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>47</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>3.8839999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
@@ -1751,7 +1750,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15" t="s">
@@ -1768,7 +1767,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
@@ -1785,7 +1784,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>52</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
@@ -1829,7 +1828,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
@@ -1846,7 +1845,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
@@ -1863,7 +1862,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>57</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15" t="s">
@@ -1907,7 +1906,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15" t="s">
@@ -1924,7 +1923,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15" t="s">
@@ -1941,7 +1940,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>62</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15" t="s">
@@ -1985,7 +1984,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15" t="s">
@@ -2002,7 +2001,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15" t="s">
@@ -2019,7 +2018,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
         <v>1</v>
@@ -2058,7 +2057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>1.70789841347494E+16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15" t="s">
@@ -2371,7 +2370,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15" t="s">
@@ -2388,7 +2387,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15" t="s">
@@ -2405,7 +2404,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>6.7329999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
@@ -2449,7 +2448,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15" t="s">
@@ -2466,7 +2465,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
@@ -2483,7 +2482,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>27</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>1.3440000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
@@ -2527,7 +2526,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15" t="s">
@@ -2544,7 +2543,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15" t="s">
@@ -2561,7 +2560,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>32</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>5.7229999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15" t="s">
@@ -2605,7 +2604,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15" t="s">
@@ -2622,7 +2621,7 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15" t="s">
@@ -2639,7 +2638,7 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>37</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>6.3220000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15" t="s">
@@ -2683,7 +2682,7 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15" t="s">
@@ -2700,7 +2699,7 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15" t="s">
@@ -2717,7 +2716,7 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>42</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15" t="s">
@@ -2761,7 +2760,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15" t="s">
@@ -2778,7 +2777,7 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15" t="s">
@@ -2795,7 +2794,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>47</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15" t="s">
@@ -2839,7 +2838,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15" t="s">
@@ -2856,7 +2855,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15" t="s">
@@ -2873,7 +2872,7 @@
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>52</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>2.4420000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15" t="s">
@@ -2917,7 +2916,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15" t="s">
@@ -2934,7 +2933,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15" t="s">
@@ -2951,7 +2950,7 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>57</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>5.6479999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15" t="s">
@@ -2995,7 +2994,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15" t="s">
@@ -3012,7 +3011,7 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15" t="s">
@@ -3029,7 +3028,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
         <v>62</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>1.9790000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15" t="s">
@@ -3073,7 +3072,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15" t="s">
@@ -3090,7 +3089,7 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15" t="s">
@@ -3114,16 +3113,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -3203,25 +3205,25 @@
         <v>115</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N2" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
@@ -3241,25 +3243,25 @@
         <v>115</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
         <v>116</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
@@ -3279,25 +3281,25 @@
         <v>115</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
         <v>116</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N4" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
@@ -3317,25 +3319,25 @@
         <v>115</v>
       </c>
       <c r="K5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
         <v>116</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N5" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -3365,10 +3367,10 @@
         <v>115</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3383,7 +3385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -3403,10 +3405,10 @@
         <v>115</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -3441,10 +3443,10 @@
         <v>115</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3459,7 +3461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -3479,10 +3481,10 @@
         <v>115</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3497,7 +3499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
@@ -3527,10 +3529,10 @@
         <v>115</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -3545,7 +3547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
@@ -3565,10 +3567,10 @@
         <v>115</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -3583,7 +3585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
@@ -3603,10 +3605,10 @@
         <v>115</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -3621,7 +3623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
@@ -3641,10 +3643,10 @@
         <v>115</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -3659,7 +3661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
@@ -3689,10 +3691,10 @@
         <v>115</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -3707,7 +3709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -3727,10 +3729,10 @@
         <v>115</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -3745,7 +3747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -3765,10 +3767,10 @@
         <v>115</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -3783,7 +3785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -3803,10 +3805,10 @@
         <v>115</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -3821,7 +3823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -3851,10 +3853,10 @@
         <v>115</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3869,7 +3871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -3889,10 +3891,10 @@
         <v>115</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -3927,10 +3929,10 @@
         <v>115</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3945,7 +3947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -3965,10 +3967,10 @@
         <v>115</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
@@ -4013,10 +4015,10 @@
         <v>115</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -4031,7 +4033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -4051,10 +4053,10 @@
         <v>115</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -4069,7 +4071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
@@ -4089,10 +4091,10 @@
         <v>115</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -4107,7 +4109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
@@ -4127,10 +4129,10 @@
         <v>115</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -4145,7 +4147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>47</v>
       </c>
@@ -4175,10 +4177,10 @@
         <v>115</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -4193,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
@@ -4213,10 +4215,10 @@
         <v>115</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -4231,7 +4233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
@@ -4251,10 +4253,10 @@
         <v>115</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -4269,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
@@ -4289,10 +4291,10 @@
         <v>115</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -4307,7 +4309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>52</v>
       </c>
@@ -4337,10 +4339,10 @@
         <v>115</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4355,7 +4357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
@@ -4375,10 +4377,10 @@
         <v>115</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4393,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
@@ -4413,10 +4415,10 @@
         <v>115</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4431,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
@@ -4451,10 +4453,10 @@
         <v>115</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4469,7 +4471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
@@ -4499,10 +4501,10 @@
         <v>115</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34">
         <v>26</v>
@@ -4517,7 +4519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
@@ -4537,10 +4539,10 @@
         <v>115</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35">
         <v>26</v>
@@ -4555,7 +4557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
@@ -4575,10 +4577,10 @@
         <v>115</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -4593,7 +4595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
@@ -4613,10 +4615,10 @@
         <v>115</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -4631,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>62</v>
       </c>
@@ -4661,10 +4663,10 @@
         <v>115</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38">
         <v>89</v>
@@ -4679,7 +4681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
@@ -4699,10 +4701,10 @@
         <v>115</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M39">
         <v>89</v>
@@ -4717,7 +4719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
@@ -4737,10 +4739,10 @@
         <v>115</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M40">
         <v>89</v>
@@ -4755,7 +4757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
@@ -4775,10 +4777,10 @@
         <v>115</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41">
         <v>89</v>
@@ -4799,16 +4801,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4882,19 +4887,19 @@
         <v>115</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
@@ -4914,19 +4919,19 @@
         <v>115</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
         <v>116</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
@@ -4946,19 +4951,19 @@
         <v>115</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
         <v>116</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
@@ -4978,19 +4983,19 @@
         <v>115</v>
       </c>
       <c r="K5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
         <v>116</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="N5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -5020,10 +5025,10 @@
         <v>115</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -5032,7 +5037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -5052,10 +5057,10 @@
         <v>115</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -5064,7 +5069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -5084,10 +5089,10 @@
         <v>115</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -5096,7 +5101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -5116,10 +5121,10 @@
         <v>115</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -5128,7 +5133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
@@ -5158,10 +5163,10 @@
         <v>115</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -5170,7 +5175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
@@ -5190,10 +5195,10 @@
         <v>115</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -5202,7 +5207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
@@ -5222,10 +5227,10 @@
         <v>115</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -5234,7 +5239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
@@ -5254,10 +5259,10 @@
         <v>115</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -5266,7 +5271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
@@ -5296,10 +5301,10 @@
         <v>115</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -5308,7 +5313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -5328,10 +5333,10 @@
         <v>115</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -5340,7 +5345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -5360,10 +5365,10 @@
         <v>115</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -5372,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -5392,10 +5397,10 @@
         <v>115</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -5404,7 +5409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -5434,10 +5439,10 @@
         <v>115</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5446,7 +5451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -5466,10 +5471,10 @@
         <v>115</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -5478,7 +5483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -5498,10 +5503,10 @@
         <v>115</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5510,7 +5515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -5530,10 +5535,10 @@
         <v>115</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5542,7 +5547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
@@ -5572,10 +5577,10 @@
         <v>115</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -5584,7 +5589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -5604,10 +5609,10 @@
         <v>115</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -5616,7 +5621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
@@ -5636,10 +5641,10 @@
         <v>115</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -5648,7 +5653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
@@ -5668,10 +5673,10 @@
         <v>115</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -5680,7 +5685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>47</v>
       </c>
@@ -5710,10 +5715,10 @@
         <v>115</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -5722,7 +5727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
@@ -5742,10 +5747,10 @@
         <v>115</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -5754,7 +5759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
@@ -5774,10 +5779,10 @@
         <v>115</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -5786,7 +5791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
@@ -5806,10 +5811,10 @@
         <v>115</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -5818,7 +5823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>52</v>
       </c>
@@ -5848,10 +5853,10 @@
         <v>115</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5860,7 +5865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
@@ -5880,10 +5885,10 @@
         <v>115</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5892,7 +5897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
@@ -5912,10 +5917,10 @@
         <v>115</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5924,7 +5929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
@@ -5944,10 +5949,10 @@
         <v>115</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5956,7 +5961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
@@ -5986,10 +5991,10 @@
         <v>115</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34">
         <v>26</v>
@@ -5998,7 +6003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
@@ -6018,10 +6023,10 @@
         <v>115</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35">
         <v>26</v>
@@ -6030,7 +6035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
@@ -6050,10 +6055,10 @@
         <v>115</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -6062,7 +6067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
@@ -6082,10 +6087,10 @@
         <v>115</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -6094,7 +6099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>62</v>
       </c>
@@ -6124,10 +6129,10 @@
         <v>115</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38">
         <v>89</v>
@@ -6136,7 +6141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
@@ -6156,10 +6161,10 @@
         <v>115</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M39">
         <v>89</v>
@@ -6168,7 +6173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
@@ -6188,10 +6193,10 @@
         <v>115</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M40">
         <v>89</v>
@@ -6200,7 +6205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
@@ -6220,10 +6225,10 @@
         <v>115</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41">
         <v>89</v>
